--- a/0_Datasets/Data2022/Region/clean_data/regnprof_2022_clean.xlsx
+++ b/0_Datasets/Data2022/Region/clean_data/regnprof_2022_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PL21"/>
+  <dimension ref="A1:PN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2574,6 +2574,16 @@
           <t>Region 2021 Graduates: Minimum HS PGM All Students % (Profile Only)</t>
         </is>
       </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>REGNNAME</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3862,6 +3872,16 @@
       <c r="PL2" t="n">
         <v>0.3</v>
       </c>
+      <c r="PM2" t="inlineStr">
+        <is>
+          <t>'01</t>
+        </is>
+      </c>
+      <c r="PN2" t="inlineStr">
+        <is>
+          <t>REGION 01: EDINBURG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5145,6 +5165,16 @@
       </c>
       <c r="PL3" t="n">
         <v>0.8</v>
+      </c>
+      <c r="PM3" t="inlineStr">
+        <is>
+          <t>'02</t>
+        </is>
+      </c>
+      <c r="PN3" t="inlineStr">
+        <is>
+          <t>REGION 02: CORPUS CHRISTI</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -6422,6 +6452,16 @@
       <c r="PL4" t="n">
         <v>0</v>
       </c>
+      <c r="PM4" t="inlineStr">
+        <is>
+          <t>'03</t>
+        </is>
+      </c>
+      <c r="PN4" t="inlineStr">
+        <is>
+          <t>REGION 03: VICTORIA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7709,6 +7749,16 @@
       </c>
       <c r="PL5" t="n">
         <v>0.2</v>
+      </c>
+      <c r="PM5" t="inlineStr">
+        <is>
+          <t>'04</t>
+        </is>
+      </c>
+      <c r="PN5" t="inlineStr">
+        <is>
+          <t>REGION 04: HOUSTON</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -8986,6 +9036,16 @@
       <c r="PL6" t="n">
         <v>0.5</v>
       </c>
+      <c r="PM6" t="inlineStr">
+        <is>
+          <t>'05</t>
+        </is>
+      </c>
+      <c r="PN6" t="inlineStr">
+        <is>
+          <t>REGION 05: BEAUMONT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10270,6 +10330,16 @@
       <c r="PL7" t="n">
         <v>0.1</v>
       </c>
+      <c r="PM7" t="inlineStr">
+        <is>
+          <t>'06</t>
+        </is>
+      </c>
+      <c r="PN7" t="inlineStr">
+        <is>
+          <t>REGION 06: HUNTSVILLE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11558,6 +11628,16 @@
       <c r="PL8" t="n">
         <v>0</v>
       </c>
+      <c r="PM8" t="inlineStr">
+        <is>
+          <t>'07</t>
+        </is>
+      </c>
+      <c r="PN8" t="inlineStr">
+        <is>
+          <t>REGION 07: KILGORE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12841,6 +12921,16 @@
       </c>
       <c r="PL9" t="n">
         <v>0.1</v>
+      </c>
+      <c r="PM9" t="inlineStr">
+        <is>
+          <t>'08</t>
+        </is>
+      </c>
+      <c r="PN9" t="inlineStr">
+        <is>
+          <t>REGION 08: MT PLEASANT</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -14118,6 +14208,16 @@
       <c r="PL10" t="n">
         <v>0</v>
       </c>
+      <c r="PM10" t="inlineStr">
+        <is>
+          <t>'09</t>
+        </is>
+      </c>
+      <c r="PN10" t="inlineStr">
+        <is>
+          <t>REGION 09: WICHITA FALLS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15406,6 +15506,16 @@
       <c r="PL11" t="n">
         <v>0.2</v>
       </c>
+      <c r="PM11" t="inlineStr">
+        <is>
+          <t>'10</t>
+        </is>
+      </c>
+      <c r="PN11" t="inlineStr">
+        <is>
+          <t>REGION 10: RICHARDSON</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16694,6 +16804,16 @@
       <c r="PL12" t="n">
         <v>0.1</v>
       </c>
+      <c r="PM12" t="inlineStr">
+        <is>
+          <t>'11</t>
+        </is>
+      </c>
+      <c r="PN12" t="inlineStr">
+        <is>
+          <t>REGION 11: FORT WORTH</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17982,6 +18102,16 @@
       <c r="PL13" t="n">
         <v>0.5</v>
       </c>
+      <c r="PM13" t="inlineStr">
+        <is>
+          <t>'12</t>
+        </is>
+      </c>
+      <c r="PN13" t="inlineStr">
+        <is>
+          <t>REGION 12: WACO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19270,6 +19400,16 @@
       <c r="PL14" t="n">
         <v>1</v>
       </c>
+      <c r="PM14" t="inlineStr">
+        <is>
+          <t>'13</t>
+        </is>
+      </c>
+      <c r="PN14" t="inlineStr">
+        <is>
+          <t>REGION 13: AUSTIN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20553,6 +20693,16 @@
       </c>
       <c r="PL15" t="n">
         <v>0.1</v>
+      </c>
+      <c r="PM15" t="inlineStr">
+        <is>
+          <t>'14</t>
+        </is>
+      </c>
+      <c r="PN15" t="inlineStr">
+        <is>
+          <t>REGION 14: ABILENE</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -21830,6 +21980,16 @@
       <c r="PL16" t="n">
         <v>0.2</v>
       </c>
+      <c r="PM16" t="inlineStr">
+        <is>
+          <t>'15</t>
+        </is>
+      </c>
+      <c r="PN16" t="inlineStr">
+        <is>
+          <t>REGION 15: SAN ANGELO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -23106,6 +23266,16 @@
       <c r="PL17" t="n">
         <v>0.1</v>
       </c>
+      <c r="PM17" t="inlineStr">
+        <is>
+          <t>'16</t>
+        </is>
+      </c>
+      <c r="PN17" t="inlineStr">
+        <is>
+          <t>REGION 16: AMARILLO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -24394,6 +24564,16 @@
       <c r="PL18" t="n">
         <v>0.5</v>
       </c>
+      <c r="PM18" t="inlineStr">
+        <is>
+          <t>'17</t>
+        </is>
+      </c>
+      <c r="PN18" t="inlineStr">
+        <is>
+          <t>REGION 17: LUBBOCK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -25682,6 +25862,16 @@
       <c r="PL19" t="n">
         <v>0.1</v>
       </c>
+      <c r="PM19" t="inlineStr">
+        <is>
+          <t>'18</t>
+        </is>
+      </c>
+      <c r="PN19" t="inlineStr">
+        <is>
+          <t>REGION 18: MIDLAND</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -26970,6 +27160,16 @@
       <c r="PL20" t="n">
         <v>0.1</v>
       </c>
+      <c r="PM20" t="inlineStr">
+        <is>
+          <t>'19</t>
+        </is>
+      </c>
+      <c r="PN20" t="inlineStr">
+        <is>
+          <t>REGION 19: EL PASO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28257,6 +28457,16 @@
       </c>
       <c r="PL21" t="n">
         <v>0.2</v>
+      </c>
+      <c r="PM21" t="inlineStr">
+        <is>
+          <t>'20</t>
+        </is>
+      </c>
+      <c r="PN21" t="inlineStr">
+        <is>
+          <t>REGION 20: SAN ANTONIO</t>
+        </is>
       </c>
     </row>
   </sheetData>
